--- a/data/globalTables/wasteMaterial.xlsx
+++ b/data/globalTables/wasteMaterial.xlsx
@@ -16,109 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
-  <si>
-    <t>物料编码</t>
-  </si>
-  <si>
-    <t>物料名称</t>
-  </si>
-  <si>
-    <t>C.CPE002001</t>
-  </si>
-  <si>
-    <t>CPE002001</t>
-  </si>
-  <si>
-    <t>C.CPE002002</t>
-  </si>
-  <si>
-    <t>CPE002002</t>
-  </si>
-  <si>
-    <t>C.CPE002003</t>
-  </si>
-  <si>
-    <t>CPE002003</t>
-  </si>
-  <si>
-    <t>C.CPE002004</t>
-  </si>
-  <si>
-    <t>CPE002004</t>
-  </si>
-  <si>
-    <t>C.CPE002005</t>
-  </si>
-  <si>
-    <t>CPE002005</t>
-  </si>
-  <si>
-    <t>C.CPE002006</t>
-  </si>
-  <si>
-    <t>CPE002006</t>
-  </si>
-  <si>
-    <t>C.CPE003001</t>
-  </si>
-  <si>
-    <t>CPE003001</t>
-  </si>
-  <si>
-    <t>C.CPE003002</t>
-  </si>
-  <si>
-    <t>CPE003002</t>
-  </si>
-  <si>
-    <t>C.CPE003003</t>
-  </si>
-  <si>
-    <t>CPE003003</t>
-  </si>
-  <si>
-    <t>materialCode</t>
-  </si>
-  <si>
-    <t>materialName</t>
-  </si>
-  <si>
-    <t>S1711152003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1711221002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1711243002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1711282005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1711293007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1711331011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1712014001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1712055008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17121243005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>废料产生工单</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -164,22 +62,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>发现杂质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料不良</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-12-23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-01-20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0334</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -225,6 +107,115 @@
   </si>
   <si>
     <t>13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804520161L5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产批次号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>180452</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 产品编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>productCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>AS011-044</t>
+  </si>
+  <si>
+    <t>普通膜</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>内部试样</t>
+  </si>
+  <si>
+    <t>CPE003016</t>
+  </si>
+  <si>
+    <t>印刷普通膜</t>
+  </si>
+  <si>
+    <t>CPE004005</t>
+  </si>
+  <si>
+    <t>金佰利</t>
+  </si>
+  <si>
+    <t>杭州可悦</t>
+  </si>
+  <si>
+    <t>CPE013001</t>
+  </si>
+  <si>
+    <t>CPE013002</t>
+  </si>
+  <si>
+    <t>扬州三笑</t>
+  </si>
+  <si>
+    <t>CPE014012</t>
+  </si>
+  <si>
+    <t>CPE014018</t>
+  </si>
+  <si>
+    <t>CPE014025</t>
+  </si>
+  <si>
+    <t>尤妮佳</t>
+  </si>
+  <si>
+    <t>设备调试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料发现杂质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>印刷不良</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-08</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +258,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,12 +275,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -293,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +328,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,306 +637,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:H11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="F8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <v>6</v>
       </c>
     </row>
